--- a/src/main/resources/testdata/Add_GF_Protein.xlsx
+++ b/src/main/resources/testdata/Add_GF_Protein.xlsx
@@ -12,7 +12,6 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="J1:R10"/>
 </workbook>
 </file>
 
@@ -460,7 +459,7 @@
   <dimension ref="A1:R2"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/src/main/resources/testdata/Add_GF_Protein.xlsx
+++ b/src/main/resources/testdata/Add_GF_Protein.xlsx
@@ -78,9 +78,6 @@
     <t>OurProteinsource</t>
   </si>
   <si>
-    <t>AAAANNVV</t>
-  </si>
-  <si>
     <t>AAP</t>
   </si>
   <si>
@@ -115,6 +112,9 @@
   </si>
   <si>
     <t>SELENIUM_PROTEIN</t>
+  </si>
+  <si>
+    <t>SeleniumProtein</t>
   </si>
 </sst>
 </file>
@@ -459,7 +459,7 @@
   <dimension ref="A1:R2"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -489,13 +489,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>2</v>
@@ -537,7 +537,7 @@
         <v>14</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:18" ht="75" x14ac:dyDescent="0.25">
@@ -545,13 +545,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>16</v>
@@ -566,34 +566,34 @@
         <v>19</v>
       </c>
       <c r="I2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J2" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="K2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M2" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="K2" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="M2" s="1" t="s">
+      <c r="N2" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="O2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="O2" s="1" t="s">
+      <c r="P2" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>25</v>
       </c>
       <c r="Q2" s="1" t="s">
         <v>14</v>
       </c>
       <c r="R2" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/testdata/Add_GF_Protein.xlsx
+++ b/src/main/resources/testdata/Add_GF_Protein.xlsx
@@ -69,9 +69,6 @@
     <t>TaEXPB23</t>
   </si>
   <si>
-    <t>AY260547.prot</t>
-  </si>
-  <si>
     <t>Avena sativa</t>
   </si>
   <si>
@@ -115,6 +112,9 @@
   </si>
   <si>
     <t>SeleniumProtein</t>
+  </si>
+  <si>
+    <t>angaj2010</t>
   </si>
 </sst>
 </file>
@@ -459,7 +459,7 @@
   <dimension ref="A1:R2"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -489,13 +489,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>2</v>
@@ -537,7 +537,7 @@
         <v>14</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:18" ht="75" x14ac:dyDescent="0.25">
@@ -545,55 +545,55 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>16</v>
       </c>
       <c r="F2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="I2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J2" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I2" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="J2" s="1" t="s">
+      <c r="K2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="M2" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="K2" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="M2" s="1" t="s">
+      <c r="N2" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="O2" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="O2" s="1" t="s">
+      <c r="P2" s="1" t="s">
         <v>23</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>24</v>
       </c>
       <c r="Q2" s="1" t="s">
         <v>14</v>
       </c>
       <c r="R2" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/testdata/Add_GF_Protein.xlsx
+++ b/src/main/resources/testdata/Add_GF_Protein.xlsx
@@ -63,9 +63,6 @@
     <t>accessionNoGS</t>
   </si>
   <si>
-    <t>1 marvsanava lvalvsvllt ygccaqspln ytgslakssk aswswlpaka twygaptgag 61 pddnggacgy khtnqypfms mtscgneplf kdgmgcgacy qircvnnkac sgkpetvmit 121 dmnyypvgky hfdlsgtafg amakpgqndk lrhagiidiq  fqrvpcnhpg lnvnfqverg 181 snpnylavlv efanregtvv qmdlmesrng rptgywtamr hswgaiwrmd srrrlqgpfs 241 lrirsesgkt lvakqvipan wrpdtnyrsn vqfr</t>
-  </si>
-  <si>
     <t>TaEXPB23</t>
   </si>
   <si>
@@ -114,7 +111,11 @@
     <t>SeleniumProtein</t>
   </si>
   <si>
-    <t>angaj2010</t>
+    <t xml:space="preserve">
+1 marvsanava lvalvsvllt ygccaqspln ytgslakssk aswswlpaka twygaptgag 61 pddnggacgy khtnqypfms mtscgneplf kdgmgcgacy qircvnnkac sgkpetvmit 121 dmnyypvgky hfdlsgtafg amakpgqndk lrhagiidiq  fqrvpcnhpg lnvnfqverg 181 snpnylavlv efanregtvv qmdlmesrng rptgywtamr hswgaiwrmd srrrlqgpfs 241 lrirsesgkt lvakqvipan wrpdtnyrsn vqfr</t>
+  </si>
+  <si>
+    <t>Protein_selenium</t>
   </si>
 </sst>
 </file>
@@ -458,8 +459,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="T2" sqref="T2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -468,20 +469,21 @@
     <col min="2" max="2" width="29.5703125" style="1" customWidth="1"/>
     <col min="3" max="3" width="66.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.85546875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="8" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.5703125" style="1" customWidth="1"/>
     <col min="6" max="6" width="16.7109375" style="1" customWidth="1"/>
     <col min="7" max="7" width="17.85546875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="13.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.28515625" style="1" customWidth="1"/>
     <col min="9" max="9" width="19.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="12" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="22.42578125" style="1" customWidth="1"/>
     <col min="12" max="12" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="18.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="18" style="1" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="13.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="9.140625" style="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="17" max="17" width="18" style="1" customWidth="1"/>
+    <col min="18" max="18" width="25.42578125" style="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="45" x14ac:dyDescent="0.25">
@@ -489,13 +491,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>2</v>
@@ -537,63 +539,63 @@
         <v>14</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:18" ht="75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" ht="90" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>16</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>32</v>
       </c>
       <c r="G2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="I2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="I2" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="J2" s="1" t="s">
+      <c r="K2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="M2" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="K2" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="M2" s="1" t="s">
+      <c r="N2" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="O2" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="O2" s="1" t="s">
+      <c r="P2" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>23</v>
       </c>
       <c r="Q2" s="1" t="s">
         <v>14</v>
       </c>
       <c r="R2" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/testdata/Add_GF_Protein.xlsx
+++ b/src/main/resources/testdata/Add_GF_Protein.xlsx
@@ -115,7 +115,7 @@
 1 marvsanava lvalvsvllt ygccaqspln ytgslakssk aswswlpaka twygaptgag 61 pddnggacgy khtnqypfms mtscgneplf kdgmgcgacy qircvnnkac sgkpetvmit 121 dmnyypvgky hfdlsgtafg amakpgqndk lrhagiidiq  fqrvpcnhpg lnvnfqverg 181 snpnylavlv efanregtvv qmdlmesrng rptgywtamr hswgaiwrmd srrrlqgpfs 241 lrirsesgkt lvakqvipan wrpdtnyrsn vqfr</t>
   </si>
   <si>
-    <t>Protein_selenium</t>
+    <t>SYLK003883-PROT.prot</t>
   </si>
 </sst>
 </file>
@@ -460,7 +460,7 @@
   <dimension ref="A1:R2"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="T2" sqref="T2"/>
+      <selection activeCell="S1" sqref="S1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -483,10 +483,11 @@
     <col min="16" max="16" width="9.140625" style="1"/>
     <col min="17" max="17" width="18" style="1" customWidth="1"/>
     <col min="18" max="18" width="25.42578125" style="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="19" max="19" width="17.85546875" style="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
